--- a/template.xlsx
+++ b/template.xlsx
@@ -1,86 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15960" windowHeight="3870"/>
+    <workbookView windowHeight="5955" windowWidth="15135" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M10"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>STEP_DESC</t>
+    <t>STEPS</t>
   </si>
   <si>
     <t>ACTION</t>
   </si>
   <si>
+    <t>TARGET</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
     <t>EX_001</t>
   </si>
   <si>
-    <t>Open link: "www.google.com"</t>
+    <t>Open page</t>
   </si>
   <si>
     <t>open</t>
   </si>
   <si>
-    <t>INPUT_DATA</t>
-  </si>
-  <si>
-    <t>www.google.com</t>
-  </si>
-  <si>
-    <t>Click on button [Login]</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>id=click</t>
-  </si>
-  <si>
-    <t>Verify message displayed</t>
-  </si>
-  <si>
-    <t>Assert</t>
-  </si>
-  <si>
-    <t>id=msg</t>
-  </si>
-  <si>
-    <t>EXPECTED_DATA</t>
-  </si>
-  <si>
-    <t>STATUS</t>
+    <t>LOG</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
+    <t>google.com</t>
+  </si>
+  <si>
     <t>FAILED</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.WebDriverException: unknown error: unhandled inspector error: {"code":-32603,"message":"Cannot navigate to invalid URL"}
+  (Session info: chrome=54.0.2840.99)
+  (Driver info: chromedriver=2.24.417431 (9aea000394714d2fbb20850021f6204f2256b9cf),platform=Windows NT 10.0.14393 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 45 milliseconds
+Build info: version: 'unknown', revision: '2aa21c1', time: '2016-08-02 14:59:43 -0700'
+System info: host: 'TCSVN00027N', ip: '192.168.255.115', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.24.417431 (9aea000394714d2fbb20850021f6204f2256b9cf), userDataDir=C:\Users\KHOAHA~1\AppData\Local\Temp\scoped_dir3208_25979}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=54.0.2840.99, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 0bfd12de9cbb684ecac5805fed90590a</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.WebDriverException: unknown error: unhandled inspector error: {"code":-32603,"message":"Cannot navigate to invalid URL"}
+  (Session info: chrome=54.0.2840.99)
+  (Driver info: chromedriver=2.24.417431 (9aea000394714d2fbb20850021f6204f2256b9cf),platform=Windows NT 10.0.14393 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 46 milliseconds
+Build info: version: 'unknown', revision: '2aa21c1', time: '2016-08-02 14:59:43 -0700'
+System info: host: 'TCSVN00027N', ip: '192.168.255.115', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.24.417431 (9aea000394714d2fbb20850021f6204f2256b9cf), userDataDir=C:\Users\KHOAHA~1\AppData\Local\Temp\scoped_dir13816_31139}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=54.0.2840.99, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 6eeac5706ac8de671925d4a104f14686</t>
+  </si>
+  <si>
+    <t>org.openqa.selenium.WebDriverException: unknown error: unhandled inspector error: {"code":-32603,"message":"Cannot navigate to invalid URL"}
+  (Session info: chrome=54.0.2840.99)
+  (Driver info: chromedriver=2.24.417431 (9aea000394714d2fbb20850021f6204f2256b9cf),platform=Windows NT 10.0.14393 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 54 milliseconds
+Build info: version: 'unknown', revision: '2aa21c1', time: '2016-08-02 14:59:43 -0700'
+System info: host: 'TCSVN00027N', ip: '192.168.255.115', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_101'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.24.417431 (9aea000394714d2fbb20850021f6204f2256b9cf), userDataDir=C:\Users\KHOAHA~1\AppData\Local\Temp\scoped_dir15876_11443}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=54.0.2840.99, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=true, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true}]
+Session ID: 4224d2d0bb66b32e083089b2c26820cb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,19 +129,19 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -145,45 +158,45 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,162 +275,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT h="25400" w="63500"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,76 +462,42 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink display="http://google.com" r:id="rId1" ref="D2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>